--- a/Test/Lawnmower/T2/Sensors_data_1000047.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000047.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7075441766949084</v>
+        <v>0.947382027220904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01287043151339671</v>
+        <v>0.001981590351403872</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1609347345363973</v>
+        <v>0.006892420818996048</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.2335382930094747</v>
+        <v>0.9529288741842519</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04267700126783069</v>
+        <v>0.0008525781064072094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.807684172850935</v>
+        <v>0.1084834683040108</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6645346163306274</v>
+        <v>0.5898279670495146</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01334219416987637</v>
+        <v>0.02674638639892154</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3016229790515169</v>
+        <v>0.2282194597262757</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9998268473133722</v>
+        <v>0.9847402806443822</v>
       </c>
       <c r="D5" t="n">
-        <v>1.023979428288011e-05</v>
+        <v>0.0007715418305488242</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004616156446162478</v>
+        <v>0.2173735218409526</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -575,18 +575,68 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6112384659134777</v>
+        <v>0.05545192824790635</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01246785677548224</v>
+        <v>0.0338140491977349</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02479439145738482</v>
+        <v>0.178956377795115</v>
       </c>
       <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04537216037556491</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04924556539440551</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4990818171780061</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9262854216157803</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.003281216030585861</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3619564801248456</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
